--- a/keyword.xlsx
+++ b/keyword.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris WebOffice" lastEdited="7" lowestEdited="4" rupBuild=""/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43B8DBEF-DAF1-45C2-8271-D4C225231180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>St. Ives</t>
   </si>
@@ -47,56 +31,656 @@
   <si>
     <t>test5</t>
   </si>
+  <si>
+    <t>reedle shot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="19">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -416,44 +1000,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.38000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>